--- a/tools/xlsx/comp.xlsx
+++ b/tools/xlsx/comp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="零件" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="143">
   <si>
     <t>M架组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水槽片组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水槽片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吊环螺母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>棚头横杆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水槽片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +516,70 @@
   </si>
   <si>
     <t>顶卷膜组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自攻钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8吊环螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹箍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外侧抗风绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶弧撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱箍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8吊环螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀叉组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外侧抗风绳组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶弧撑组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +609,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +625,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -626,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -930,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,7 +1293,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>55</v>
@@ -1228,7 +1301,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
@@ -1236,13 +1309,13 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
@@ -1250,7 +1323,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
@@ -1258,7 +1331,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
@@ -1266,7 +1339,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
@@ -1274,7 +1347,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1282,7 +1355,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>55</v>
@@ -1290,7 +1363,7 @@
     </row>
     <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>55</v>
@@ -1298,7 +1371,7 @@
     </row>
     <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>55</v>
@@ -1306,7 +1379,7 @@
     </row>
     <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>55</v>
@@ -1314,7 +1387,7 @@
     </row>
     <row r="46" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>55</v>
@@ -1322,39 +1395,39 @@
     </row>
     <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>55</v>
@@ -1362,18 +1435,18 @@
     </row>
     <row r="52" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1387,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,7 +1473,7 @@
     <col min="4" max="4" width="81.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1438,39 +1511,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1478,31 +1551,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>89</v>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1510,25 +1586,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1536,7 +1612,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1544,7 +1620,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1568,15 +1644,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>94</v>
+      <c r="B22" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1600,7 +1676,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1608,7 +1684,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1624,39 +1700,39 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>3</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1664,47 +1740,47 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>87</v>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>96</v>
+      <c r="B38" t="s">
+        <v>90</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1712,15 +1788,15 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>87</v>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1728,63 +1804,63 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="D43" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1792,26 +1868,26 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1819,52 +1895,52 @@
         <v>100</v>
       </c>
       <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="D57" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1872,87 +1948,87 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
-        <v>86</v>
+      <c r="B60" t="s">
+        <v>103</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>87</v>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
+      <c r="D63" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
-        <v>86</v>
+      <c r="B65" t="s">
+        <v>103</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>87</v>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1960,15 +2036,15 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1976,31 +2052,31 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2008,15 +2084,15 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2024,194 +2100,308 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" s="1" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>105</v>
-      </c>
       <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>100</v>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B87" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B109" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B111" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B112" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="6">
+      <c r="C118" s="6">
         <v>1</v>
       </c>
     </row>
